--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail3 Features.xlsx
@@ -5176,7 +5176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5187,29 +5187,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5230,115 +5228,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5355,72 +5343,66 @@
         <v>2.634228823300284e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.463866388676681</v>
+        <v>1.498086852274214e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.33056183224495</v>
+        <v>3.900846693538641e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.498086852274214e-06</v>
+        <v>0.08837058295830724</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.900846693538641e-06</v>
+        <v>0.2711807950603666</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08837058295830724</v>
+        <v>0.08126996298405831</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2711807950603666</v>
+        <v>1.558571365979896</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08126996298405831</v>
+        <v>1.204379621895661</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.561952750983643</v>
+        <v>22.17594078121841</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.204379621895661</v>
+        <v>5.545780038791563e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>22.17594078121841</v>
+        <v>158678293.2999382</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.545780038791563e-14</v>
+        <v>6.704576508539909e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>158678293.2999382</v>
+        <v>1396.360906809242</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.704576508539909e-07</v>
+        <v>5.591544580915953e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1396.360906809242</v>
+        <v>9.187987036616397</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>5.591544580915953e-05</v>
+        <v>1.472137892886252</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.187987036616397</v>
+        <v>0.004720331934780605</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.472137892886252</v>
+        <v>6.071513489693062</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.004720331934780605</v>
+        <v>0.9282397078691578</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.071513489693062</v>
+        <v>1.039764572594307</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9282397078691578</v>
+        <v>8</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.039764572594307</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>4.262563560328812</v>
       </c>
     </row>
@@ -5435,72 +5417,66 @@
         <v>2.274504969177645e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.9306944689472133</v>
+        <v>1.229255162634562e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.253427177997791</v>
+        <v>3.921746385278248e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.229255162634562e-06</v>
+        <v>0.08216708263837499</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.921746385278248e-06</v>
+        <v>0.2810928280883676</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08216708263837499</v>
+        <v>0.08568765949318081</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2810928280883676</v>
+        <v>1.555272642886494</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08568765949318081</v>
+        <v>1.202411012165249</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.557876339228004</v>
+        <v>22.19872264634906</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.202411012165249</v>
+        <v>5.534402953377563e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>22.19872264634906</v>
+        <v>159002969.1449257</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.534402953377563e-14</v>
+        <v>6.690864132711895e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>159002969.1449257</v>
+        <v>1399.204666304622</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.690864132711895e-07</v>
+        <v>6.336013863793527e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1399.204666304622</v>
+        <v>9.482548058731657</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>6.336013863793527e-05</v>
+        <v>1.279075335670879</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.482548058731657</v>
+        <v>0.005697262418740175</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.279075335670879</v>
+        <v>5.418126545057611</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.005697262418740175</v>
+        <v>0.9285495200402528</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.418126545057611</v>
+        <v>1.044465296389734</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9285495200402528</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.044465296389734</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.222874884176622</v>
       </c>
     </row>
@@ -5515,72 +5491,66 @@
         <v>2.028881166623178e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.4735482156628574</v>
+        <v>9.921984412988228e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.4999702182291008</v>
+        <v>3.938419083054138e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.921984412988228e-07</v>
+        <v>0.07278040231248986</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.938419083054138e-06</v>
+        <v>0.2823380968749853</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07278040231248986</v>
+        <v>0.08492940919985342</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2823380968749853</v>
+        <v>1.554004237965706</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08492940919985342</v>
+        <v>1.201407275214903</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.556253573316397</v>
+        <v>22.17129492205252</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.201407275214903</v>
+        <v>5.548104450834771e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>22.17129492205252</v>
+        <v>158610346.6100147</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.548104450834771e-14</v>
+        <v>6.707420963786857e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>158610346.6100147</v>
+        <v>1395.750065980363</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.707420963786857e-07</v>
+        <v>5.402472733468616e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1395.750065980363</v>
+        <v>8.453048770077535</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>5.402472733468616e-05</v>
+        <v>1.289358177485163</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.453048770077535</v>
+        <v>0.003860284677303964</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.289358177485163</v>
+        <v>5.668540688335532</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.003860284677303964</v>
+        <v>0.9277401780718663</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.668540688335532</v>
+        <v>1.089555877620795</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9277401780718663</v>
+        <v>8</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.089555877620795</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>3.550572778142608</v>
       </c>
     </row>
@@ -5595,72 +5565,66 @@
         <v>1.887551312860618e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2423072552810749</v>
+        <v>7.682642188667416e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.355336320453794</v>
+        <v>3.951384407482313e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.682642188667416e-07</v>
+        <v>0.05966498697360659</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.951384407482313e-06</v>
+        <v>0.2669850607326111</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05966498697360659</v>
+        <v>0.07475460107865925</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2669850607326111</v>
+        <v>1.551873674257465</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07475460107865925</v>
+        <v>1.19984976294164</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.553946593384602</v>
+        <v>22.08528069903712</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.19984976294164</v>
+        <v>5.591404347464994e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>22.08528069903712</v>
+        <v>157381583.6188953</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.591404347464994e-14</v>
+        <v>6.759768606259221e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>157381583.6188953</v>
+        <v>1384.932866309739</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.759768606259221e-07</v>
+        <v>4.083236798035598e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1384.932866309739</v>
+        <v>7.233997080399606</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>4.083236798035598e-05</v>
+        <v>1.416092107311947</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.233997080399606</v>
+        <v>0.002136786960891558</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.416092107311947</v>
+        <v>6.320578572607941</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.002136786960891558</v>
+        <v>0.9274233044175747</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>6.320578572607941</v>
+        <v>1.075921700410559</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9274233044175747</v>
+        <v>8</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.075921700410559</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>4.487204152579158</v>
       </c>
     </row>
@@ -5675,72 +5639,66 @@
         <v>1.832085748323857e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.2322950480128579</v>
+        <v>5.607970386174166e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.485084030132902</v>
+        <v>3.961103280018473e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.607970386174166e-07</v>
+        <v>0.04536752887339201</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.961103280018473e-06</v>
+        <v>0.2376169578859208</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04536752887339201</v>
+        <v>0.05843995251916255</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2376169578859208</v>
+        <v>1.551868388356966</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05843995251916255</v>
+        <v>1.198700795208949</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.553631840362121</v>
+        <v>21.8293136498343</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.198700795208949</v>
+        <v>5.72330097012415e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>21.8293136498343</v>
+        <v>153757836.908073</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.72330097012415e-14</v>
+        <v>6.919102207075941e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>153757836.908073</v>
+        <v>1353.07261983034</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.919102207075941e-07</v>
+        <v>3.357243828183872e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1353.07261983034</v>
+        <v>7.417336312848291</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>3.357243828183872e-05</v>
+        <v>1.697623446594978</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.417336312848291</v>
+        <v>0.001847050740372428</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.697623446594978</v>
+        <v>6.801918456909251</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.001847050740372428</v>
+        <v>0.9296393332363946</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>6.801918456909251</v>
+        <v>1.040198568728719</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9296393332363946</v>
+        <v>8</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.040198568728719</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>5.330297661263765</v>
       </c>
     </row>
@@ -5755,72 +5713,66 @@
         <v>1.834329698426157e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.2894519071582529</v>
+        <v>5.56363267465845e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.452035543573913</v>
+        <v>3.968205399784439e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.56363267465845e-07</v>
+        <v>0.03302678062946238</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.968205399784439e-06</v>
+        <v>0.2026674766487475</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03302678062946238</v>
+        <v>0.04210269179884941</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2026674766487475</v>
+        <v>1.539107230561309</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04210269179884941</v>
+        <v>1.200730692057705</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.539948478442102</v>
+        <v>21.79716139537106</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.200730692057705</v>
+        <v>5.74019791780135e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>21.79716139537106</v>
+        <v>153319941.7711425</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.74019791780135e-14</v>
+        <v>6.9385084569233e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>153319941.7711425</v>
+        <v>1349.348585412713</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.9385084569233e-07</v>
+        <v>3.4564395705089e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1349.348585412713</v>
+        <v>9.531038852963315</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3.4564395705089e-05</v>
+        <v>1.537445727130371</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.531038852963315</v>
+        <v>0.003139853956807408</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.537445727130371</v>
+        <v>6.854755492517204</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.003139853956807408</v>
+        <v>0.9274020488025736</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>6.854755492517204</v>
+        <v>1.040103527159778</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9274020488025736</v>
+        <v>9</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.040103527159778</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>5.580528936159958</v>
       </c>
     </row>
@@ -5835,72 +5787,66 @@
         <v>1.86620336388283e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.3054856502716976</v>
+        <v>5.977903141579499e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.445727726034486</v>
+        <v>3.973486791467933e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.977903141579499e-07</v>
+        <v>0.02475590552802493</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.973486791467933e-06</v>
+        <v>0.1795086818178277</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02475590552802493</v>
+        <v>0.03280983361720786</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1795086818178277</v>
+        <v>1.519668814534111</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03280983361720786</v>
+        <v>1.201794379426194</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.514674590887352</v>
+        <v>21.71064737206715</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.201794379426194</v>
+        <v>5.786036907798894e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>21.71064737206715</v>
+        <v>152116389.3781011</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.786036907798894e-14</v>
+        <v>6.993061243560223e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>152116389.3781011</v>
+        <v>1338.853988024215</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.993061243560223e-07</v>
+        <v>4.159396570302702e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1338.853988024215</v>
+        <v>10.94902980845854</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>4.159396570302702e-05</v>
+        <v>1.325225400135347</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.94902980845854</v>
+        <v>0.004986336756768372</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.325225400135347</v>
+        <v>6.270371340952365</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.004986336756768372</v>
+        <v>0.9176718251434961</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>6.270371340952365</v>
+        <v>1.117628736506969</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9176718251434961</v>
+        <v>9</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.117628736506969</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>4.429343051109671</v>
       </c>
     </row>
@@ -5915,72 +5861,66 @@
         <v>1.904708748750343e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2826940755872338</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.437227287698036</v>
+        <v>3.977471667230625e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>0.01777758851123658</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.977471667230625e-06</v>
+        <v>0.1657527928125266</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01777758851123658</v>
+        <v>0.02778223419016996</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1657527928125266</v>
+        <v>1.530893820760006</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02778223419016996</v>
+        <v>1.209955496377345</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.527987111784355</v>
+        <v>21.21222459836361</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.209955496377345</v>
+        <v>6.061139964870114e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>21.21222459836361</v>
+        <v>145209785.6191664</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.061139964870114e-14</v>
+        <v>7.325860530798134e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>145209785.6191664</v>
+        <v>1278.044811123119</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.325860530798134e-07</v>
+        <v>7.050504350485555e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1278.044811123119</v>
+        <v>9.16896073029692</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>7.050504350485555e-05</v>
+        <v>1.762040053746298</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.16896073029692</v>
+        <v>0.005927347788248409</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.762040053746298</v>
+        <v>5.253025708348634</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.005927347788248409</v>
+        <v>0.9253033162705848</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>5.253025708348634</v>
+        <v>1.082519854424386</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9253033162705848</v>
+        <v>9</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.082519854424386</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>1.987099065995514</v>
       </c>
     </row>
@@ -5995,72 +5935,66 @@
         <v>1.936602883839354e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.2563409237757418</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.430366904705988</v>
+        <v>3.980362531099573e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>0.012825543765992</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.980362531099573e-06</v>
+        <v>0.1616806708818409</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.012825543765992</v>
+        <v>0.02630358899991833</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1616806708818409</v>
+        <v>1.555049238518641</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02630358899991833</v>
+        <v>1.23532257463059</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.555200417072877</v>
+        <v>21.63237409851462</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.23532257463059</v>
+        <v>5.827984352512813e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>21.63237409851462</v>
+        <v>150994284.2463488</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>5.827984352512813e-14</v>
+        <v>7.046292334635802e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>150994284.2463488</v>
+        <v>1328.738113925456</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.046292334635802e-07</v>
+        <v>8.871917924099224e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1328.738113925456</v>
+        <v>8.431550176270859</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>8.871917924099224e-05</v>
+        <v>1.712957776707932</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.431550176270859</v>
+        <v>0.0063071385760175</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.712957776707932</v>
+        <v>4.566966036221497</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0063071385760175</v>
+        <v>0.9321437783652774</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.566966036221497</v>
+        <v>1.056160682519927</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9321437783652774</v>
+        <v>8</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.056160682519927</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>1.096394134590807</v>
       </c>
     </row>
@@ -6075,72 +6009,66 @@
         <v>1.959881378560358e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.2432783875819615</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.436338771419061</v>
+        <v>3.982607453940382e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>0.0104968254368883</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.982607453940382e-06</v>
+        <v>0.1612684868246906</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.0104968254368883</v>
+        <v>0.02611507962680436</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1612684868246906</v>
+        <v>1.474694058575931</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02611507962680436</v>
+        <v>1.342931629598251</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.409996343225867</v>
+        <v>6.971134012676787</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.342931629598251</v>
+        <v>3.51505141652362e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>6.971134012676787</v>
+        <v>67704724.26876622</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.51505141652362e-14</v>
+        <v>1.567038051435624e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>67704724.26876622</v>
+        <v>161.1274854413755</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.567038051435624e-06</v>
+        <v>0.0001098489699647726</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>161.1274854413755</v>
+        <v>9.446870084412934</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001098489699647726</v>
+        <v>1.173493509975303</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.446870084412934</v>
+        <v>0.009803290556137765</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.173493509975303</v>
+        <v>3.718915595424168</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.009803290556137765</v>
+        <v>0.9228218369333541</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.718915595424168</v>
+        <v>1.354976467055058</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9228218369333541</v>
+        <v>9</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.354976467055058</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.6658544149911195</v>
       </c>
     </row>
@@ -6155,72 +6083,66 @@
         <v>1.977056962808114e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.2421007246944751</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.450296484261838</v>
+        <v>3.984538878401998e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>0.00911706447368138</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.984538878401998e-06</v>
+        <v>0.1609783255612502</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.00911706447368138</v>
+        <v>0.025995355391933</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1609783255612502</v>
+        <v>1.456672932604933</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.025995355391933</v>
+        <v>1.315228589505031</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.394370050084794</v>
+        <v>7.006992018579275</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.315228589505031</v>
+        <v>3.479167195522288e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>7.006992018579275</v>
+        <v>68276401.18842557</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.479167195522288e-14</v>
+        <v>1.552963842033873e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>68276401.18842557</v>
+        <v>162.1871876104782</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.552963842033873e-06</v>
+        <v>0.0001417615487274818</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>162.1871876104782</v>
+        <v>9.875770427070718</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001417615487274818</v>
+        <v>1.183288801839713</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.875770427070718</v>
+        <v>0.01382612314373287</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.183288801839713</v>
+        <v>2.992278097609602</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01382612314373287</v>
+        <v>0.9175330217978344</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.992278097609602</v>
+        <v>1.364443643112943</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9175330217978344</v>
+        <v>9</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.364443643112943</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3293248997063504</v>
       </c>
     </row>
@@ -6235,72 +6157,66 @@
         <v>1.989821201517694e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.2471412168290613</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.464946163588914</v>
+        <v>3.986202896139543e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>0.007614603361644171</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.986202896139543e-06</v>
+        <v>0.1607223347726417</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.007614603361644171</v>
+        <v>0.02588912397531766</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1607223347726417</v>
+        <v>1.456977330238865</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02588912397531766</v>
+        <v>1.331506574532985</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.394628187049148</v>
+        <v>7.09041370462673</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.331506574532985</v>
+        <v>3.397781081890016e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>7.09041370462673</v>
+        <v>69867753.01564501</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.397781081890016e-14</v>
+        <v>1.517618099781224e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>69867753.01564501</v>
+        <v>165.8627824373342</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.517618099781224e-06</v>
+        <v>0.0001558933146395166</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>165.8627824373342</v>
+        <v>9.120484470182896</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001558933146395166</v>
+        <v>1.227619764315564</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.120484470182896</v>
+        <v>0.01296771053382978</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.227619764315564</v>
+        <v>2.804737989909512</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01296771053382978</v>
+        <v>0.9194700584901209</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.804737989909512</v>
+        <v>1.423470256100548</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9194700584901209</v>
+        <v>9</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.423470256100548</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1782279782651292</v>
       </c>
     </row>
@@ -6315,72 +6231,66 @@
         <v>1.999635042176661e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.2534823250320538</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.477338103383631</v>
+        <v>3.98758675848344e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>0.006333002221808239</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.98758675848344e-06</v>
+        <v>0.1600960481304372</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.006333002221808239</v>
+        <v>0.02567063710439085</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1600960481304372</v>
+        <v>1.482896908353297</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02567063710439085</v>
+        <v>1.402215608208636</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.420533100521527</v>
+        <v>6.924535317849345</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.402215608208636</v>
+        <v>3.562519711921071e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>6.924535317849345</v>
+        <v>66590494.60860355</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.562519711921071e-14</v>
+        <v>1.592860301036505e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>66590494.60860355</v>
+        <v>157.9725968448105</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.592860301036505e-06</v>
+        <v>0.0001750136548261652</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>157.9725968448105</v>
+        <v>8.489948462863209</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001750136548261652</v>
+        <v>1.466943245436479</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.489948462863209</v>
+        <v>0.012614848587149</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.466943245436479</v>
+        <v>2.786232819640293</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.012614848587149</v>
+        <v>0.9275640274479623</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.786232819640293</v>
+        <v>1.406477436570611</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9275640274479623</v>
+        <v>8</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.406477436570611</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1379667906531748</v>
       </c>
     </row>
@@ -6395,72 +6305,66 @@
         <v>2.008230000479533e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.2583340951851794</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.487711655566872</v>
+        <v>3.988766837575836e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>0.005582556789469196</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.988766837575836e-06</v>
+        <v>0.1591455117610668</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.005582556789469196</v>
+        <v>0.02535661052234276</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1591455117610668</v>
+        <v>1.463267998151942</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02535661052234276</v>
+        <v>1.430740771877916</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.374715753651449</v>
+        <v>3.565142762036337</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.430740771877916</v>
+        <v>3.570844157631698e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.565142762036337</v>
+        <v>7946670.64239338</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.570844157631698e-14</v>
+        <v>1.207022792974275e-05</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>7946670.64239338</v>
+        <v>2.25497288441359</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.207022792974275e-05</v>
+        <v>0.0001795488761890308</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2.25497288441359</v>
+        <v>9.329669645876544</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001795488761890308</v>
+        <v>1.381416057399491</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.329669645876544</v>
+        <v>0.01562842537556752</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.381416057399491</v>
+        <v>2.761557996799883</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01562842537556752</v>
+        <v>0.9271379280908472</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.761557996799883</v>
+        <v>1.89103824803635</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9271379280908472</v>
+        <v>7</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.89103824803635</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1351547069384477</v>
       </c>
     </row>
@@ -6475,72 +6379,66 @@
         <v>2.017636755454122e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.2594457682143709</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.496317503557989</v>
+        <v>3.98988325287998e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>0.005667180204090608</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.98988325287998e-06</v>
+        <v>0.1585473398553496</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.005667180204090608</v>
+        <v>0.02516451576132279</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1585473398553496</v>
+        <v>1.443741747629385</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02516451576132279</v>
+        <v>1.483146115182272</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.365161638862764</v>
+        <v>3.513284435357694</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.483146115182272</v>
+        <v>3.746014969931638e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.513284435357694</v>
+        <v>8147674.08180166</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.746014969931638e-14</v>
+        <v>1.117606083507161e-05</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>8147674.08180166</v>
+        <v>2.486776789382796</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.117606083507161e-05</v>
+        <v>0.0001637143402632612</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>2.486776789382796</v>
+        <v>10.82468583266943</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001637143402632612</v>
+        <v>1.104620853998971</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.82468583266943</v>
+        <v>0.01918303519012481</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.104620853998971</v>
+        <v>2.651879877427373</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01918303519012481</v>
+        <v>0.9290933364623933</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.651879877427373</v>
+        <v>1.860864580624676</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9290933364623933</v>
+        <v>8</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.860864580624676</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1506833913197457</v>
       </c>
     </row>
@@ -6555,72 +6453,66 @@
         <v>2.029735316791488e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.2544811351982154</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.501114886456147</v>
+        <v>3.991084793739528e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>0.006013527261270014</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.991084793739528e-06</v>
+        <v>0.1580203229067941</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.006013527261270014</v>
+        <v>0.02500523975374274</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1580203229067941</v>
+        <v>1.37642404079536</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02500523975374274</v>
+        <v>1.446427247709498</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.301265725482338</v>
+        <v>3.246961245863341</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.446427247709498</v>
+        <v>4.385730304092607e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.246961245863341</v>
+        <v>7482484.855469621</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.385730304092607e-14</v>
+        <v>1.152644181959859e-05</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>7482484.855469621</v>
+        <v>2.455464245586029</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.152644181959859e-05</v>
+        <v>0.000160246023259945</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>2.455464245586029</v>
+        <v>10.32237240673497</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000160246023259945</v>
+        <v>1.123012513852231</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.32237240673497</v>
+        <v>0.01707443365244824</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.123012513852231</v>
+        <v>2.690969068853896</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01707443365244824</v>
+        <v>0.923955814355467</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.690969068853896</v>
+        <v>1.93708229308207</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.923955814355467</v>
+        <v>3</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.93708229308207</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1517047552816459</v>
       </c>
     </row>
@@ -6635,72 +6527,66 @@
         <v>2.041454266865302e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.2469440855522298</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.502233345075618</v>
+        <v>3.992155670871897e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>0.004139927901979101</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.992155670871897e-06</v>
+        <v>0.1565052245642861</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.004139927901979101</v>
+        <v>0.02450985607450213</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1565052245642861</v>
+        <v>1.358630689638612</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.02450985607450213</v>
+        <v>1.422388926428055</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.287222088528418</v>
+        <v>3.074551795987696</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.422388926428055</v>
+        <v>4.891392397549861e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.074551795987696</v>
+        <v>6865523.852148377</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.891392397549861e-14</v>
+        <v>1.255266646193981e-05</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>6865523.852148377</v>
+        <v>2.305578241082123</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.255266646193981e-05</v>
+        <v>0.0001684084090627009</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>2.305578241082123</v>
+        <v>8.788910768091379</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001684084090627009</v>
+        <v>1.383566074413383</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.788910768091379</v>
+        <v>0.01300869955687599</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.383566074413383</v>
+        <v>2.812724392904272</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01300869955687599</v>
+        <v>0.9191614761960785</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.812724392904272</v>
+        <v>1.922833670074406</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9191614761960785</v>
+        <v>3</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.922833670074406</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1414344541657077</v>
       </c>
     </row>
@@ -6715,72 +6601,66 @@
         <v>2.047176599855331e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.2429260387304439</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.502369290930469</v>
+        <v>3.992665354433733e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>0.0007353081210245432</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.992665354433733e-06</v>
+        <v>0.1559156365143042</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.0007353081210245432</v>
+        <v>0.02430863018216503</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1559156365143042</v>
+        <v>1.360670616511618</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02430863018216503</v>
+        <v>1.404160725495996</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.287440593038822</v>
+        <v>3.044851956463684</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.404160725495996</v>
+        <v>4.987280197005923e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.044851956463684</v>
+        <v>6745165.320598936</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.987280197005923e-14</v>
+        <v>1.279094085337213e-05</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>6745165.320598936</v>
+        <v>2.269075598881094</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.279094085337213e-05</v>
+        <v>0.0001682466018599488</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>2.269075598881094</v>
+        <v>8.556703477740179</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001682466018599488</v>
+        <v>1.441799415574907</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.556703477740179</v>
+        <v>0.01231854079159182</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.441799415574907</v>
+        <v>2.851430154389281</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01231854079159182</v>
+        <v>0.9197004902716704</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.851430154389281</v>
+        <v>1.946007918454561</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9197004902716704</v>
+        <v>3</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.946007918454561</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1422209477712349</v>
       </c>
     </row>
@@ -6795,72 +6675,66 @@
         <v>2.044942542442411e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.2442004136372055</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.501877243356814</v>
+        <v>3.992459245751744e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>-0.00271707200004076</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.992459245751744e-06</v>
+        <v>0.1575232873686991</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.00271707200004076</v>
+        <v>0.02481848446711588</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1575232873686991</v>
+        <v>1.353675157802353</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02481848446711588</v>
+        <v>1.384577904287029</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.279892850542196</v>
+        <v>3.086684688428877</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.384577904287029</v>
+        <v>4.853014586967466e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.086684688428877</v>
+        <v>6965802.435515642</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>4.853014586967466e-14</v>
+        <v>1.237896053291661e-05</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>6965802.435515642</v>
+        <v>2.354799323230171</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.237896053291661e-05</v>
+        <v>0.00015381892676243</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>2.354799323230171</v>
+        <v>9.340755957206667</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.00015381892676243</v>
+        <v>1.251925058212098</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.340755957206667</v>
+        <v>0.01342065857560931</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.251925058212098</v>
+        <v>2.877277809433632</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01342065857560931</v>
+        <v>0.9169372872736676</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.877277809433632</v>
+        <v>1.953817175666938</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9169372872736676</v>
+        <v>3</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.953817175666938</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1543818077649798</v>
       </c>
     </row>
@@ -6875,72 +6749,66 @@
         <v>2.036160132695764e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.2474808436425808</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.497877588452774</v>
+        <v>3.9915843281429e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>-0.005764717319541521</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.9915843281429e-06</v>
+        <v>0.1602253683807624</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.005764717319541521</v>
+        <v>0.0257026484582065</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1602253683807624</v>
+        <v>1.348036493401926</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0257026484582065</v>
+        <v>1.345089487548077</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.272646473722705</v>
+        <v>3.232027862327944</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.345089487548077</v>
+        <v>4.426351920307624e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.232027862327944</v>
+        <v>7578304.49615352</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.426351920307624e-14</v>
+        <v>1.128750846333044e-05</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>7578304.49615352</v>
+        <v>2.542084849644698</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.128750846333044e-05</v>
+        <v>0.0001446651907016546</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>2.542084849644698</v>
+        <v>10.46006464588092</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001446651907016546</v>
+        <v>1.127000724467249</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.46006464588092</v>
+        <v>0.01582824562359954</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.127000724467249</v>
+        <v>2.807303657453382</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01582824562359954</v>
+        <v>0.9154169493582781</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.807303657453382</v>
+        <v>1.938600706834143</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9154169493582781</v>
+        <v>8</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.938600706834143</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1681182734612417</v>
       </c>
     </row>
@@ -6955,72 +6823,66 @@
         <v>2.023982818320026e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.2480485489329192</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.488502240392174</v>
+        <v>3.990219761939965e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>-0.007374258677845048</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.990219761939965e-06</v>
+        <v>0.1624548720097478</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.007374258677845048</v>
+        <v>0.02644282322925865</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1624548720097478</v>
+        <v>1.382371586923798</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02644282322925865</v>
+        <v>1.480491643360265</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.304559553040952</v>
+        <v>3.375764014871824</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.480491643360265</v>
+        <v>4.057438756247335e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.375764014871824</v>
+        <v>7752856.215064874</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.057438756247335e-14</v>
+        <v>1.127442683057497e-05</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>7752856.215064874</v>
+        <v>2.43879576621903</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.127442683057497e-05</v>
+        <v>0.0001484858591834748</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2.43879576621903</v>
+        <v>10.13517528277752</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001484858591834748</v>
+        <v>1.216022106246442</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.13517528277752</v>
+        <v>0.01525273146505869</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.216022106246442</v>
+        <v>2.951751622054447</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01525273146505869</v>
+        <v>0.9149932165022753</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.951751622054447</v>
+        <v>1.943558072529615</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9149932165022753</v>
+        <v>7</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.943558072529615</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1590762304849866</v>
       </c>
     </row>
@@ -7035,72 +6897,66 @@
         <v>2.012904546750135e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2430294718346617</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.475977229368131</v>
+        <v>3.988753197125174e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>-0.006866882145334812</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.988753197125174e-06</v>
+        <v>0.1628220788495725</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.006866882145334812</v>
+        <v>0.02655449736486058</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1628220788495725</v>
+        <v>1.423893051145391</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02655449736486058</v>
+        <v>1.326735566574764</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.340129124398179</v>
+        <v>3.435799686872922</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.326735566574764</v>
+        <v>3.916881749373084e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.435799686872922</v>
+        <v>7414741.961670905</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.916881749373084e-14</v>
+        <v>1.234514922453548e-05</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>7414741.961670905</v>
+        <v>2.15343885138853</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.234514922453548e-05</v>
+        <v>0.0001898370721502394</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2.15343885138853</v>
+        <v>9.384966342256556</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001898370721502394</v>
+        <v>1.598409357525639</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.384966342256556</v>
+        <v>0.01672039242372525</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.598409357525639</v>
+        <v>2.918422372618489</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01672039242372525</v>
+        <v>0.9197173354372434</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.918422372618489</v>
+        <v>1.939659960454549</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9197173354372434</v>
+        <v>7</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.939659960454549</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1378702538328665</v>
       </c>
     </row>
@@ -7115,72 +6971,66 @@
         <v>2.005718626478704e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.2346616544021662</v>
+        <v>6.154121941197531e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.465544120819674</v>
+        <v>3.987573777708258e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>6.154121941197531e-07</v>
+        <v>-0.0046705111721293</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.987573777708258e-06</v>
+        <v>0.1614150519507672</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.0046705111721293</v>
+        <v>0.02607312832868163</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1614150519507672</v>
+        <v>1.424660474522627</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02607312832868163</v>
+        <v>1.319693062278461</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.340876732252197</v>
+        <v>3.63262111250932</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.319693062278461</v>
+        <v>3.21376741106356e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.63262111250932</v>
+        <v>8930164.184294293</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.21376741106356e-14</v>
+        <v>1.02345413303031e-05</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>8930164.184294293</v>
+        <v>2.562909847365549</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.02345413303031e-05</v>
+        <v>0.0001810856023470537</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2.562909847365549</v>
+        <v>9.384491505210546</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001810856023470537</v>
+        <v>1.516314479200057</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.384491505210546</v>
+        <v>0.01594797011263715</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.516314479200057</v>
+        <v>2.922533324009589</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01594797011263715</v>
+        <v>0.9185570686211622</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.922533324009589</v>
+        <v>1.902304403000269</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9185570686211622</v>
+        <v>7</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.902304403000269</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1410738143141286</v>
       </c>
     </row>
@@ -7557,7 +7407,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.419191471940019</v>
+        <v>1.412516045567522</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.32713302717997</v>
@@ -7646,7 +7496,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.416672403371663</v>
+        <v>1.40345223824335</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.253882007052736</v>
@@ -7735,7 +7585,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.428830418580004</v>
+        <v>1.419861617750615</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.310268928842151</v>
@@ -7824,7 +7674,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.449367479612666</v>
+        <v>1.443891849237756</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.351247310148608</v>
@@ -7913,7 +7763,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.474974009179513</v>
+        <v>1.468543043598404</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.295970242122408</v>
@@ -8002,7 +7852,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.49716179597252</v>
+        <v>1.486539434983798</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.513232683618762</v>
@@ -8091,7 +7941,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.489870356219602</v>
+        <v>1.485030778819864</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.571756234504105</v>
@@ -8180,7 +8030,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.509270952486361</v>
+        <v>1.50373422358522</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.078599620119082</v>
@@ -8269,7 +8119,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.519785624686644</v>
+        <v>1.511826130638421</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.975978210487887</v>
@@ -8358,7 +8208,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.524962078336837</v>
+        <v>1.51193637743545</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.087765371498517</v>
@@ -8447,7 +8297,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.516533747969435</v>
+        <v>1.506937836834202</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.889348634054387</v>
@@ -8536,7 +8386,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.524224586115419</v>
+        <v>1.515009857948705</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.717027049781096</v>
@@ -8625,7 +8475,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.528493875514338</v>
+        <v>1.514660158396321</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.897292927134086</v>
@@ -8714,7 +8564,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.519749889129488</v>
+        <v>1.510979413061682</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.483736454853252</v>
@@ -8803,7 +8653,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.531526534996081</v>
+        <v>1.520473058791685</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.719539371253509</v>
@@ -8892,7 +8742,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.531751553163324</v>
+        <v>1.524486433327293</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.890208401556604</v>
@@ -8981,7 +8831,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.534696859834518</v>
+        <v>1.533922460862275</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.81865760362694</v>
@@ -9070,7 +8920,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.554089160205624</v>
+        <v>1.554433399543657</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.540825212522663</v>
@@ -9159,7 +9009,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.543571801133139</v>
+        <v>1.539094952227133</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.540108650046624</v>
@@ -9248,7 +9098,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.564820069599553</v>
+        <v>1.558371039753986</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.561217649680445</v>
@@ -9337,7 +9187,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.591270118626131</v>
+        <v>1.582663448622635</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.862183856540254</v>
@@ -9426,7 +9276,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.594980222163698</v>
+        <v>1.588578402314455</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.823294535709234</v>
@@ -9515,7 +9365,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.595031268938442</v>
+        <v>1.584493827791985</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.13396919711025</v>
@@ -9604,7 +9454,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.598675736481499</v>
+        <v>1.585763921033797</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.887775495969875</v>
@@ -9693,7 +9543,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.581505657219312</v>
+        <v>1.572674239066277</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.757858105244029</v>
@@ -9782,7 +9632,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.589417176058852</v>
+        <v>1.581682025394815</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.786407756583414</v>
@@ -9871,7 +9721,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.587407918057672</v>
+        <v>1.577577849188108</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.121116603195972</v>
@@ -9960,7 +9810,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.572162105845325</v>
+        <v>1.566104544046216</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.604999554068401</v>
@@ -10049,7 +9899,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.564654975162038</v>
+        <v>1.564437994663218</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.932929854925985</v>
@@ -10138,7 +9988,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.559667364290702</v>
+        <v>1.565055368991457</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.178470003370115</v>
@@ -10227,7 +10077,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.573466327003138</v>
+        <v>1.57683407674539</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.595051277204033</v>
@@ -10316,7 +10166,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.575823323711037</v>
+        <v>1.580652493731604</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.903465437636934</v>
@@ -10405,7 +10255,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.572530902735565</v>
+        <v>1.576998852028605</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.905929604521946</v>
@@ -10494,7 +10344,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.57246754454109</v>
+        <v>1.581134167615921</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.923060211348738</v>
@@ -10583,7 +10433,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.564779497145766</v>
+        <v>1.577290774753546</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.923667189428255</v>
@@ -10672,7 +10522,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.554850285243695</v>
+        <v>1.567412824385723</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.856928811973551</v>
@@ -10761,7 +10611,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.548270003485138</v>
+        <v>1.556283318243472</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.207596501987231</v>
@@ -10850,7 +10700,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.529982304804262</v>
+        <v>1.538057786589266</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.742106134722998</v>
@@ -10939,7 +10789,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.521331140188318</v>
+        <v>1.534636847996172</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.765026797174346</v>
@@ -11028,7 +10878,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.539785616769151</v>
+        <v>1.553123023172673</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.134843624712452</v>
@@ -11117,7 +10967,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.531589092683971</v>
+        <v>1.541167831464171</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.031441821899976</v>
@@ -11206,7 +11056,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.5444971293202</v>
+        <v>1.550029271480331</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.127684711543522</v>
@@ -11295,7 +11145,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.563572923462114</v>
+        <v>1.567732311316195</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.717490787260152</v>
@@ -11384,7 +11234,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.56833386104214</v>
+        <v>1.571083584719812</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.757320652714705</v>
@@ -11473,7 +11323,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.570963249758821</v>
+        <v>1.569275076982088</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.709287806865784</v>
@@ -11562,7 +11412,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.555912722298205</v>
+        <v>1.551038952697181</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.925750234338898</v>
@@ -11651,7 +11501,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.563680376637101</v>
+        <v>1.556981742760468</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.990014223000444</v>
@@ -11740,7 +11590,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.546236481118993</v>
+        <v>1.542077352982509</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.062255901464512</v>
@@ -11829,7 +11679,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.556863729999036</v>
+        <v>1.558508885451655</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.417361877152239</v>
@@ -11918,7 +11768,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.529134082163711</v>
+        <v>1.527999367487203</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.428928133104668</v>
@@ -12007,7 +11857,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.513979616500881</v>
+        <v>1.510628688980015</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.333115502466549</v>
@@ -12096,7 +11946,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.512554041323428</v>
+        <v>1.508902065844362</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.337053353382952</v>
@@ -12185,7 +12035,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.519195798555194</v>
+        <v>1.524772070109771</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.427906363739043</v>
@@ -12274,7 +12124,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.530362340145863</v>
+        <v>1.530432982532154</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.419171025179879</v>
@@ -12363,7 +12213,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.53137761926979</v>
+        <v>1.523933778050765</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.359669968858878</v>
@@ -12452,7 +12302,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.528776854198673</v>
+        <v>1.523750543793448</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.344302641087106</v>
@@ -12541,7 +12391,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.52956008621621</v>
+        <v>1.525074926409915</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.356238598108054</v>
@@ -12630,7 +12480,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.515048219739698</v>
+        <v>1.512307623415845</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.368296162742285</v>
@@ -12719,7 +12569,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.507756898000907</v>
+        <v>1.504042083869229</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.3454514040088</v>
@@ -12808,7 +12658,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.50318528724032</v>
+        <v>1.500547341463776</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.392198491335707</v>
@@ -12897,7 +12747,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.498469441636114</v>
+        <v>1.499461755235215</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.356347549547541</v>
@@ -12986,7 +12836,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.486262537159148</v>
+        <v>1.488276939672158</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.391350945050586</v>
@@ -13075,7 +12925,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.507878820058254</v>
+        <v>1.505294995948389</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.344427866205612</v>
@@ -13164,7 +13014,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.500311519454543</v>
+        <v>1.488161115200018</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.820123224178249</v>
@@ -13253,7 +13103,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.527106664378099</v>
+        <v>1.513435887612771</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.834367744869395</v>
@@ -13342,7 +13192,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.563157511883403</v>
+        <v>1.546673268470221</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.14939996200884</v>
@@ -13431,7 +13281,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.583786492600939</v>
+        <v>1.570638021549745</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.959537458752553</v>
@@ -13520,7 +13370,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.578750031066336</v>
+        <v>1.565236260813189</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.832539000108539</v>
@@ -13806,7 +13656,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.582675189345554</v>
+        <v>1.561830648140965</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.815786974799103</v>
@@ -13895,7 +13745,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.591676772623161</v>
+        <v>1.57102685837008</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.768922630302212</v>
@@ -13984,7 +13834,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.595088904046183</v>
+        <v>1.578259678258436</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.738959085102372</v>
@@ -14073,7 +13923,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.599348632792921</v>
+        <v>1.585006278744539</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.945312066447989</v>
@@ -14162,7 +14012,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.622802050522427</v>
+        <v>1.600816545285595</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.576107856812031</v>
@@ -14251,7 +14101,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.652910064444342</v>
+        <v>1.623592003766649</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.95684705597402</v>
@@ -14340,7 +14190,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.663245459207474</v>
+        <v>1.620686269093731</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.840664163841425</v>
@@ -14429,7 +14279,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.657139988985918</v>
+        <v>1.617450608885319</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.762300314338604</v>
@@ -14518,7 +14368,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.661238156588987</v>
+        <v>1.619950757696203</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.097582827348798</v>
@@ -14607,7 +14457,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.661405703370414</v>
+        <v>1.625196220634898</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.917966757780198</v>
@@ -14696,7 +14546,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.65003745695426</v>
+        <v>1.620151691027494</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.18544704442713</v>
@@ -14785,7 +14635,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.639288240620419</v>
+        <v>1.611881263922213</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.950749555468235</v>
@@ -14874,7 +14724,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.630828760269932</v>
+        <v>1.602025297250365</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.107563367675836</v>
@@ -14963,7 +14813,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.622983010349603</v>
+        <v>1.593243177002829</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.196431351286099</v>
@@ -15052,7 +14902,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.621474602303936</v>
+        <v>1.59318310302035</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.132736699752701</v>
@@ -15141,7 +14991,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.606945076083145</v>
+        <v>1.576640448528142</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.110726855884997</v>
@@ -15230,7 +15080,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.606747118916292</v>
+        <v>1.572143086978599</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.263863286131103</v>
@@ -15319,7 +15169,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.594895298337113</v>
+        <v>1.556949924047079</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.149930599631162</v>
@@ -15408,7 +15258,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.605681550525268</v>
+        <v>1.561936734602196</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.705196912048122</v>
@@ -15497,7 +15347,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.597968684340149</v>
+        <v>1.555834701490993</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.987374212893605</v>
@@ -15586,7 +15436,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.591167198700645</v>
+        <v>1.555501385159746</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.569508455676655</v>
@@ -15675,7 +15525,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.584122589662174</v>
+        <v>1.551956126902752</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.78596334750245</v>
@@ -15764,7 +15614,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.581791926947314</v>
+        <v>1.542857299849992</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.757444726262551</v>
@@ -15853,7 +15703,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.581355171712453</v>
+        <v>1.540984641793885</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.84527270010617</v>
@@ -15942,7 +15792,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.581422504200725</v>
+        <v>1.541429696878451</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.646862142445344</v>
@@ -16031,7 +15881,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.585838521260478</v>
+        <v>1.544265310006382</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.84824148598452</v>
@@ -16120,7 +15970,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.598737198764658</v>
+        <v>1.554453919314633</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.605174303276852</v>
@@ -16209,7 +16059,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.610957480152712</v>
+        <v>1.568220656137336</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.798123920490647</v>
@@ -16298,7 +16148,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.615579742905374</v>
+        <v>1.575674870598508</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.771591187692226</v>
@@ -16387,7 +16237,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.61681512982659</v>
+        <v>1.580703095668903</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.750639500769346</v>
@@ -16476,7 +16326,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.625688164779889</v>
+        <v>1.600060973132862</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.417168463176482</v>
@@ -16565,7 +16415,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.632489358175403</v>
+        <v>1.607642995811412</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.338646346176531</v>
@@ -16654,7 +16504,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.646718046146468</v>
+        <v>1.623458697489445</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.541118163912603</v>
@@ -16743,7 +16593,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.643194485184701</v>
+        <v>1.618181660541045</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.034934271860529</v>
@@ -16832,7 +16682,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.629276808415255</v>
+        <v>1.60662344675073</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.167148450977647</v>
@@ -16921,7 +16771,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.634406006065328</v>
+        <v>1.609241026887558</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.188967058674958</v>
@@ -17010,7 +16860,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.640732605458328</v>
+        <v>1.610498516835469</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.944088134837047</v>
@@ -17099,7 +16949,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.631558821482831</v>
+        <v>1.594887999160013</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.245353508733202</v>
@@ -17188,7 +17038,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.628421025535281</v>
+        <v>1.598330186684616</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.308442436454229</v>
@@ -17277,7 +17127,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.621329830752353</v>
+        <v>1.590889069414505</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.284323779216852</v>
@@ -17366,7 +17216,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.632963026220964</v>
+        <v>1.598971586568119</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.198750418973799</v>
@@ -17455,7 +17305,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.6385380028089</v>
+        <v>1.606945618169249</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.32892186652028</v>
@@ -17544,7 +17394,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.648626619204395</v>
+        <v>1.611802187753262</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.109293820208404</v>
@@ -17633,7 +17483,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.645432757246382</v>
+        <v>1.598421226687459</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.999026443123998</v>
@@ -17722,7 +17572,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.655269029861181</v>
+        <v>1.601363836752419</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.134509637674797</v>
@@ -17811,7 +17661,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.652795629149069</v>
+        <v>1.59924422984662</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.501495123757514</v>
@@ -17900,7 +17750,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.651135824256071</v>
+        <v>1.598521879602304</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.361895711840823</v>
@@ -17989,7 +17839,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.639474153362356</v>
+        <v>1.61370245031998</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.068644164609813</v>
@@ -18078,7 +17928,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.554151918699967</v>
+        <v>1.55720918424355</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.833621188036675</v>
@@ -18167,7 +18017,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.529248719213288</v>
+        <v>1.538408259824464</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.842459266020315</v>
@@ -18256,7 +18106,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.522612224351018</v>
+        <v>1.532972045319844</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.859368689106172</v>
@@ -18345,7 +18195,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.510053055895998</v>
+        <v>1.525077456014718</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.847244037697073</v>
@@ -18434,7 +18284,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.512850974937197</v>
+        <v>1.53328230915527</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.817870107413172</v>
@@ -18523,7 +18373,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.513382070268837</v>
+        <v>1.531710057345656</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.827797197307545</v>
@@ -18612,7 +18462,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.516440302097545</v>
+        <v>1.535185958304845</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.826795732454158</v>
@@ -18701,7 +18551,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.515626756009993</v>
+        <v>1.532691928984111</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.838829934276078</v>
@@ -18790,7 +18640,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.509058580272853</v>
+        <v>1.524133550148793</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.838658693448493</v>
@@ -18879,7 +18729,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.506856454891869</v>
+        <v>1.522325227841405</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.836892140323057</v>
@@ -18968,7 +18818,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.504544553060358</v>
+        <v>1.525120356798796</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.814428236212221</v>
@@ -19057,7 +18907,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.498572524907821</v>
+        <v>1.521181184132535</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.837633652964</v>
@@ -19146,7 +18996,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.496393740176551</v>
+        <v>1.520659955233532</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.815951447919711</v>
@@ -19235,7 +19085,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.498617372182086</v>
+        <v>1.521248713977399</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.818357279465561</v>
@@ -19324,7 +19174,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.499431315724096</v>
+        <v>1.510233167563084</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.829968213257321</v>
@@ -19413,7 +19263,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.545713208674519</v>
+        <v>1.526366263511761</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.061164066762252</v>
@@ -19502,7 +19352,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.612362187963215</v>
+        <v>1.575824888051981</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.923638147383242</v>
@@ -19591,7 +19441,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.640913204152539</v>
+        <v>1.592102248412705</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.000519377653974</v>
@@ -19680,7 +19530,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.660041469871643</v>
+        <v>1.607830132810677</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.405991695777729</v>
@@ -19769,7 +19619,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.654636677355559</v>
+        <v>1.598248363119318</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.131733378749861</v>
@@ -20055,7 +19905,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.635414038314813</v>
+        <v>1.577278942444938</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.505735176936156</v>
@@ -20144,7 +19994,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.647598402381784</v>
+        <v>1.590412191254871</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.136494300613812</v>
@@ -20233,7 +20083,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.648265317457377</v>
+        <v>1.59556446792869</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.144934136738478</v>
@@ -20322,7 +20172,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.656452957074516</v>
+        <v>1.604489685054877</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.037483809487335</v>
@@ -20411,7 +20261,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.662956131210304</v>
+        <v>1.607811666873393</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.117406549515898</v>
@@ -20500,7 +20350,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.650612484476072</v>
+        <v>1.595312431787203</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.39695175234492</v>
@@ -20589,7 +20439,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.628655446590434</v>
+        <v>1.57174124867622</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.953353211023882</v>
@@ -20678,7 +20528,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.632991449998218</v>
+        <v>1.57641565499474</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.299885417450366</v>
@@ -20767,7 +20617,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.632063212128124</v>
+        <v>1.569323183876017</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.321607415698489</v>
@@ -20856,7 +20706,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.617688642567882</v>
+        <v>1.555598658630105</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.252353038955854</v>
@@ -20945,7 +20795,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.620835362380635</v>
+        <v>1.55993923091872</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.527057364298597</v>
@@ -21034,7 +20884,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.609803697135887</v>
+        <v>1.551424155293134</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.625417650511272</v>
@@ -21123,7 +20973,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.606450706650494</v>
+        <v>1.539664691516819</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.700388002224697</v>
@@ -21212,7 +21062,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.604640262390006</v>
+        <v>1.540868169531993</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.488917928150116</v>
@@ -21301,7 +21151,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.602197354512767</v>
+        <v>1.547321930910238</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.555433063227915</v>
@@ -21390,7 +21240,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.605360173579286</v>
+        <v>1.547091070030298</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.517240095521744</v>
@@ -21479,7 +21329,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.59852845564296</v>
+        <v>1.537565005904078</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.619410475197394</v>
@@ -21568,7 +21418,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.613843463751467</v>
+        <v>1.54946714399165</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.644342514449366</v>
@@ -21657,7 +21507,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.614228528645651</v>
+        <v>1.540540661164609</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.368632299879996</v>
@@ -21746,7 +21596,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.618053368130771</v>
+        <v>1.531772247762426</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.819540335687689</v>
@@ -21835,7 +21685,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.628905928506991</v>
+        <v>1.538201903849262</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.847050519040111</v>
@@ -21924,7 +21774,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.640310456257637</v>
+        <v>1.546975695670692</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.55986847992942</v>
@@ -22013,7 +21863,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.654022792502756</v>
+        <v>1.55056319176055</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.393976596985841</v>
@@ -22102,7 +21952,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.654781497768253</v>
+        <v>1.546759604709952</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.286071633967152</v>
@@ -22191,7 +22041,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.658076373062049</v>
+        <v>1.5416233672697</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.672435987340918</v>
@@ -22280,7 +22130,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.661254354292591</v>
+        <v>1.544802694498984</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.743082281742302</v>
@@ -22369,7 +22219,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.657171531554343</v>
+        <v>1.547291435702679</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.423528750990141</v>
@@ -22458,7 +22308,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.664344077491931</v>
+        <v>1.556329089054923</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.888248338383433</v>
@@ -22547,7 +22397,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.668894366899933</v>
+        <v>1.561732321525805</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.912982562539991</v>
@@ -22636,7 +22486,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.679982911341772</v>
+        <v>1.572287201284061</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.563277967889817</v>
@@ -22725,7 +22575,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.685043716049861</v>
+        <v>1.581493229859583</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.190986741078876</v>
@@ -22814,7 +22664,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.694632470702762</v>
+        <v>1.59465825806019</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.070547422183489</v>
@@ -22903,7 +22753,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.692072404408481</v>
+        <v>1.594253421420012</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.438998755035417</v>
@@ -22992,7 +22842,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.692834867400329</v>
+        <v>1.604871743756374</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.482515564194205</v>
@@ -23081,7 +22931,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.686905923676703</v>
+        <v>1.606259792195464</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.568833310436623</v>
@@ -23170,7 +23020,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.678696236578183</v>
+        <v>1.604002525402127</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.431570969053666</v>
@@ -23259,7 +23109,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.673823686816672</v>
+        <v>1.60115143836738</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.930486290636104</v>
@@ -23348,7 +23198,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.635023345169214</v>
+        <v>1.559433349926415</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.7373769524033</v>
@@ -23437,7 +23287,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.626636789408089</v>
+        <v>1.558682352907994</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.699798260188827</v>
@@ -23526,7 +23376,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.631185612320317</v>
+        <v>1.572853126749981</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.311673581401327</v>
@@ -23615,7 +23465,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.629748294464719</v>
+        <v>1.57040928126528</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.617685567666818</v>
@@ -23704,7 +23554,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.626205441987699</v>
+        <v>1.566734442710986</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.39222349478569</v>
@@ -23793,7 +23643,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.624038715041423</v>
+        <v>1.560521659721622</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.325867848166842</v>
@@ -23882,7 +23732,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.612428520832986</v>
+        <v>1.538317056602712</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.347772574521579</v>
@@ -23971,7 +23821,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.614539629228015</v>
+        <v>1.53642660487693</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.18784289230752</v>
@@ -24060,7 +23910,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.607082981312178</v>
+        <v>1.533396321131674</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.415440576446435</v>
@@ -24149,7 +23999,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.593115295627411</v>
+        <v>1.513639627496111</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.688384011404724</v>
@@ -24238,7 +24088,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.63401344693278</v>
+        <v>1.567408271789352</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.357758450397402</v>
@@ -24327,7 +24177,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.595592893246095</v>
+        <v>1.565853917163462</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.163409219156959</v>
@@ -24416,7 +24266,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.592613679234418</v>
+        <v>1.564910756561353</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.153456257783875</v>
@@ -24505,7 +24355,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.588475289486894</v>
+        <v>1.561824258033023</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.148720586482032</v>
@@ -24594,7 +24444,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.590627606492644</v>
+        <v>1.565328575631473</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.127340375895694</v>
@@ -24683,7 +24533,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.61004150170122</v>
+        <v>1.59366457547646</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.129525634022959</v>
@@ -24772,7 +24622,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.615510330104952</v>
+        <v>1.596263480030752</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.133697285145173</v>
@@ -24861,7 +24711,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.612821841178483</v>
+        <v>1.588399708999161</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.156542466301018</v>
@@ -24950,7 +24800,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.613965368770811</v>
+        <v>1.585342872621974</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.133904248718798</v>
@@ -25039,7 +24889,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.617499709426706</v>
+        <v>1.584107365381386</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.139126384512809</v>
@@ -25128,7 +24978,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.621970091221613</v>
+        <v>1.587010634799752</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.15902793410484</v>
@@ -25217,7 +25067,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.619419015114084</v>
+        <v>1.59357644755081</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.150125399719058</v>
@@ -25306,7 +25156,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.621942623963546</v>
+        <v>1.597763575032852</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.142124115563917</v>
@@ -25395,7 +25245,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.615525364155831</v>
+        <v>1.593557831022226</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.126798536446594</v>
@@ -25484,7 +25334,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.619715146960534</v>
+        <v>1.599693704854182</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.138429581630778</v>
@@ -25573,7 +25423,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.605004341168297</v>
+        <v>1.576662221349659</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.84411955439315</v>
@@ -25662,7 +25512,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.625815785780137</v>
+        <v>1.55786533138269</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.610243557032927</v>
@@ -25751,7 +25601,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.630443481911177</v>
+        <v>1.551489636918211</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.999440496940033</v>
@@ -25840,7 +25690,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.639450093636802</v>
+        <v>1.554205107233975</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.384650405871747</v>
@@ -25929,7 +25779,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.634519071242811</v>
+        <v>1.55307242828325</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.388381846170009</v>
@@ -26018,7 +25868,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.63231827935439</v>
+        <v>1.55430696953034</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.121692705598059</v>
@@ -26304,7 +26154,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.541453951046999</v>
+        <v>1.511870785226082</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.24285774203354</v>
@@ -26393,7 +26243,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.561098521822258</v>
+        <v>1.521934676732098</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.207477778474578</v>
@@ -26482,7 +26332,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.571717291950969</v>
+        <v>1.533672563163234</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.911158373419992</v>
@@ -26571,7 +26421,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.58476254609972</v>
+        <v>1.54639108813832</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.131200299443793</v>
@@ -26660,7 +26510,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.584242193743086</v>
+        <v>1.546458276572</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.219098915208819</v>
@@ -26749,7 +26599,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.592376114125131</v>
+        <v>1.554007992325165</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.697058986154383</v>
@@ -26838,7 +26688,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.569403754477238</v>
+        <v>1.529993928094657</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.226576327692892</v>
@@ -26927,7 +26777,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.580162795509683</v>
+        <v>1.541270263291272</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.222085394754413</v>
@@ -27016,7 +26866,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.585687589702658</v>
+        <v>1.538043548804633</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.265458453933422</v>
@@ -27105,7 +26955,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.578585876410601</v>
+        <v>1.537190831758221</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.476831926199383</v>
@@ -27194,7 +27044,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.57334018265462</v>
+        <v>1.529070240684783</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.623973678914627</v>
@@ -27283,7 +27133,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.570878776847172</v>
+        <v>1.523952709296119</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.962415305158405</v>
@@ -27372,7 +27222,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.561401454885138</v>
+        <v>1.502200500822203</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.273713156067046</v>
@@ -27461,7 +27311,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.556655942767007</v>
+        <v>1.49658942090376</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.940208314838309</v>
@@ -27550,7 +27400,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.564846235268219</v>
+        <v>1.507064758255173</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.961782993489364</v>
@@ -27639,7 +27489,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.571865239039732</v>
+        <v>1.506982502434612</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.939867067030403</v>
@@ -27728,7 +27578,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.573179540436022</v>
+        <v>1.509126996378446</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.246257238888811</v>
@@ -27817,7 +27667,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.581874796509132</v>
+        <v>1.516426649590229</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.092954068951034</v>
@@ -27906,7 +27756,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.583865513619341</v>
+        <v>1.510787429921965</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.892524187963326</v>
@@ -27995,7 +27845,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.595859113667012</v>
+        <v>1.514310882701354</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.271501989605441</v>
@@ -28084,7 +27934,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.606933376658374</v>
+        <v>1.519651031725807</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.726098515618933</v>
@@ -28173,7 +28023,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.62332043007384</v>
+        <v>1.534019260913905</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.119744959631328</v>
@@ -28262,7 +28112,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.617157616037245</v>
+        <v>1.518815725382634</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.053487034088131</v>
@@ -28351,7 +28201,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.626180009184655</v>
+        <v>1.520388734783419</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.845341647416156</v>
@@ -28440,7 +28290,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.612649190187651</v>
+        <v>1.505853664272969</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.085556947059409</v>
@@ -28529,7 +28379,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.622865379688494</v>
+        <v>1.510774580881622</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.12547458494866</v>
@@ -28618,7 +28468,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.625895322998855</v>
+        <v>1.512808983028059</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.013152136012282</v>
@@ -28707,7 +28557,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.620195677310464</v>
+        <v>1.517056090463331</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.341955957747361</v>
@@ -28796,7 +28646,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.616950694960015</v>
+        <v>1.51822694133431</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.257773460089516</v>
@@ -28885,7 +28735,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.6066920957174</v>
+        <v>1.516453414752464</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.15921648187909</v>
@@ -28974,7 +28824,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.600210814787124</v>
+        <v>1.522343604633722</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.782782715624663</v>
@@ -29063,7 +28913,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.59362722988842</v>
+        <v>1.516893756897135</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.056394979060065</v>
@@ -29152,7 +29002,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.586649552568971</v>
+        <v>1.510825153209322</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.367926883026738</v>
@@ -29241,7 +29091,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.580708379939</v>
+        <v>1.512330737355545</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.225271956554</v>
@@ -29330,7 +29180,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.578771572021534</v>
+        <v>1.511531548286166</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.953676356084899</v>
@@ -29419,7 +29269,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.571401270780861</v>
+        <v>1.514007392998571</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.166693644425968</v>
@@ -29508,7 +29358,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.565436345848058</v>
+        <v>1.516266989143211</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.940646600579758</v>
@@ -29597,7 +29447,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.549438403395756</v>
+        <v>1.5008588480381</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.207876842878449</v>
@@ -29686,7 +29536,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.535019658678574</v>
+        <v>1.491437763555836</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.183497942624573</v>
@@ -29775,7 +29625,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.549611058935396</v>
+        <v>1.511172579218286</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.950268290190073</v>
@@ -29864,7 +29714,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.534966609791272</v>
+        <v>1.49984215363819</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.732968592561729</v>
@@ -29953,7 +29803,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.540729102972746</v>
+        <v>1.500059878013486</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.195286539364959</v>
@@ -30042,7 +29892,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.557419313959379</v>
+        <v>1.513582656804769</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.072774063696358</v>
@@ -30131,7 +29981,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.554859170406614</v>
+        <v>1.503647599441887</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.310909624093815</v>
@@ -30220,7 +30070,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.564614059729341</v>
+        <v>1.510827557818468</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.184028071671773</v>
@@ -30309,7 +30159,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.556410800168637</v>
+        <v>1.502771870363038</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.375776972780209</v>
@@ -30398,7 +30248,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.551433945143574</v>
+        <v>1.498630138940285</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.068245779463089</v>
@@ -30487,7 +30337,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.600504465721016</v>
+        <v>1.559150545893376</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.091087113277321</v>
@@ -30576,7 +30426,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.612997580686144</v>
+        <v>1.597687926105334</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.253168070704659</v>
@@ -30665,7 +30515,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.601154898600865</v>
+        <v>1.585230343864188</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.272723217916664</v>
@@ -30754,7 +30604,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.596235672252044</v>
+        <v>1.578955629968645</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.21935089505449</v>
@@ -30843,7 +30693,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.597829792813735</v>
+        <v>1.578055735323538</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.209321452917531</v>
@@ -30932,7 +30782,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.603533211376047</v>
+        <v>1.590369326565005</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.270804379412809</v>
@@ -31021,7 +30871,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.618249208591068</v>
+        <v>1.600585895583766</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.24074073745369</v>
@@ -31110,7 +30960,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.61035353560814</v>
+        <v>1.592705851154906</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.286831416877555</v>
@@ -31199,7 +31049,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.615001883486861</v>
+        <v>1.598226232968224</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.26904101775094</v>
@@ -31288,7 +31138,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.612839048600452</v>
+        <v>1.595945623782578</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.280933953131254</v>
@@ -31377,7 +31227,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.616434729006266</v>
+        <v>1.59484126863452</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.248522391368193</v>
@@ -31466,7 +31316,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.61506429776606</v>
+        <v>1.600852031242688</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.258577409378932</v>
@@ -31555,7 +31405,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.61250411482642</v>
+        <v>1.59680700689998</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.278371766175058</v>
@@ -31644,7 +31494,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.609369812581109</v>
+        <v>1.596749131043038</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.237710447208102</v>
@@ -31733,7 +31583,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.609184311398196</v>
+        <v>1.596376222881283</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.261203252668016</v>
@@ -31822,7 +31672,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.591720508105352</v>
+        <v>1.571525641045625</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.893327929921366</v>
@@ -31911,7 +31761,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.554607086148059</v>
+        <v>1.507571342283345</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.697553146212044</v>
@@ -32000,7 +31850,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.558983786305971</v>
+        <v>1.517161121575814</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.40581104904087</v>
@@ -32089,7 +31939,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.57635870571956</v>
+        <v>1.527585923211654</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.227955017576447</v>
@@ -32178,7 +32028,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.575633659680048</v>
+        <v>1.526792250774603</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.977410970427359</v>
@@ -32267,7 +32117,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.576575864422127</v>
+        <v>1.527417608592128</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.438325677506992</v>
@@ -32553,7 +32403,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.413935048861937</v>
+        <v>1.423757794700613</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.10981149591805</v>
@@ -32642,7 +32492,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.390748704650772</v>
+        <v>1.403299113715034</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.159686051061531</v>
@@ -32731,7 +32581,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.390707277630851</v>
+        <v>1.406945126748038</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.125883753992726</v>
@@ -32820,7 +32670,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.379371808196338</v>
+        <v>1.398976168855045</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.045005699297019</v>
@@ -32909,7 +32759,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.376662587419758</v>
+        <v>1.398574870160316</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.103716323053956</v>
@@ -32998,7 +32848,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.433735385261519</v>
+        <v>1.451092520195095</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.07609629585434</v>
@@ -33087,7 +32937,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.491711970715896</v>
+        <v>1.501120930305595</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.190948855312533</v>
@@ -33176,7 +33026,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.528556083721741</v>
+        <v>1.53166496329781</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.445411497712781</v>
@@ -33265,7 +33115,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.524017118480047</v>
+        <v>1.522398606137798</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.297998573936206</v>
@@ -33354,7 +33204,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.527773846980205</v>
+        <v>1.523058621992291</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.265458752616386</v>
@@ -33443,7 +33293,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.529716861959323</v>
+        <v>1.522831242658125</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.267493433911079</v>
@@ -33532,7 +33382,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.533015271903259</v>
+        <v>1.530444560936616</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.3897564681383</v>
@@ -33621,7 +33471,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.556483533155492</v>
+        <v>1.541117546743706</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.221127635808931</v>
@@ -33710,7 +33560,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.555598733601546</v>
+        <v>1.537939062127912</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.298785936591424</v>
@@ -33799,7 +33649,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.577342026447591</v>
+        <v>1.55989837637306</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.268298807301238</v>
@@ -33888,7 +33738,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.571166949987651</v>
+        <v>1.563231211061282</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.297263504416456</v>
@@ -33977,7 +33827,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.623596211287979</v>
+        <v>1.602040963508199</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.512704450531965</v>
@@ -34066,7 +33916,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.623661313415103</v>
+        <v>1.59698642476238</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.67832739291448</v>
@@ -34155,7 +34005,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.66495130726927</v>
+        <v>1.621380303639193</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.701234982962272</v>
@@ -34244,7 +34094,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.681747086733522</v>
+        <v>1.639733094518728</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.788180834033718</v>
@@ -34333,7 +34183,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.674424057828297</v>
+        <v>1.633244070652605</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.986783396858304</v>
@@ -34422,7 +34272,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.675085245724608</v>
+        <v>1.635950695873611</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.727104944746929</v>
@@ -34511,7 +34361,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.66994219417782</v>
+        <v>1.624159608553805</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.452786675727955</v>
@@ -34600,7 +34450,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.669090460367895</v>
+        <v>1.634135382680723</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.799413871771201</v>
@@ -34689,7 +34539,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.657784337446383</v>
+        <v>1.62912930845076</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.774750470424623</v>
@@ -34778,7 +34628,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.581352834541123</v>
+        <v>1.563874815349581</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.188025485533109</v>
@@ -34867,7 +34717,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.571006494443318</v>
+        <v>1.551887834775538</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.130528490186225</v>
@@ -34956,7 +34806,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.567627729721006</v>
+        <v>1.555037037882212</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.16714448568622</v>
@@ -35045,7 +34895,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.56262467698372</v>
+        <v>1.551893908720287</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.115157250908909</v>
@@ -35134,7 +34984,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.553984311366566</v>
+        <v>1.544119860855135</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.187908894990509</v>
@@ -35223,7 +35073,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.550639819595876</v>
+        <v>1.53868370896633</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.146716192832671</v>
@@ -35312,7 +35162,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.556229125660697</v>
+        <v>1.545939168465759</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.130661604076649</v>
@@ -35401,7 +35251,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.555676446243959</v>
+        <v>1.550097947345493</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.16396315895319</v>
@@ -35490,7 +35340,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.560999240587557</v>
+        <v>1.554624930491828</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.174668276819108</v>
@@ -35579,7 +35429,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.552771546411863</v>
+        <v>1.543700022482563</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.192620361993643</v>
@@ -35668,7 +35518,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.549810219213307</v>
+        <v>1.544124689664234</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.177802640399905</v>
@@ -35757,7 +35607,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.54643507326555</v>
+        <v>1.545471272866143</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.13618205678328</v>
@@ -35846,7 +35696,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.543199412787858</v>
+        <v>1.533088511494416</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.187245781480187</v>
@@ -35935,7 +35785,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.545084113239266</v>
+        <v>1.53273434169299</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.135362466512392</v>
@@ -36024,7 +35874,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.547194359156947</v>
+        <v>1.534334797214998</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.139581513535596</v>
@@ -36113,7 +35963,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.629702363680907</v>
+        <v>1.604648573896503</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.777393624263348</v>
@@ -36202,7 +36052,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.626731888236607</v>
+        <v>1.604267917615266</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.964854859829718</v>
@@ -36291,7 +36141,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.638541334036095</v>
+        <v>1.614905702641614</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.104183121728461</v>
@@ -36380,7 +36230,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.652362777603797</v>
+        <v>1.614041539496412</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.772853001060457</v>
@@ -36469,7 +36319,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.65401363345259</v>
+        <v>1.608499863642385</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.914405821647827</v>
@@ -36558,7 +36408,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.645847153039531</v>
+        <v>1.601668496570694</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.017833186401521</v>
@@ -36647,7 +36497,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.617041223985929</v>
+        <v>1.576440234994309</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.933226113509954</v>
@@ -36736,7 +36586,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.567873549669399</v>
+        <v>1.551187556342584</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.660418869793371</v>
@@ -36825,7 +36675,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.404415200044112</v>
+        <v>1.419179884209051</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.753604535794831</v>
@@ -36914,7 +36764,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.375776883643951</v>
+        <v>1.375432852953296</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.804965195826759</v>
@@ -37003,7 +36853,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.332516666928884</v>
+        <v>1.345455061624658</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.805901855765098</v>
@@ -37092,7 +36942,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.329111934550804</v>
+        <v>1.342976243700853</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.809698989236775</v>
@@ -37181,7 +37031,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.323764011935493</v>
+        <v>1.341722362196314</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.803130320117815</v>
@@ -37270,7 +37120,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.323187791775004</v>
+        <v>1.340258767036067</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.813521564375254</v>
@@ -37359,7 +37209,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.321725240630345</v>
+        <v>1.338933243505661</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.799682404263828</v>
@@ -37448,7 +37298,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.322336384156973</v>
+        <v>1.340411579629483</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.80369715093439</v>
@@ -37537,7 +37387,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.325371396979225</v>
+        <v>1.344288284421285</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.806836766342015</v>
@@ -37626,7 +37476,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.325176659086302</v>
+        <v>1.342391170325916</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.809140929203428</v>
@@ -37715,7 +37565,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.323576678008135</v>
+        <v>1.343379187106667</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.806651686293502</v>
@@ -37804,7 +37654,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.322620899380278</v>
+        <v>1.343467856009857</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.796805148737498</v>
@@ -37893,7 +37743,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.328447427232225</v>
+        <v>1.349817130618756</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.772335486694021</v>
@@ -37982,7 +37832,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.335598684181731</v>
+        <v>1.357119791477453</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.778986222032711</v>
@@ -38071,7 +37921,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.348882583350753</v>
+        <v>1.358933839564989</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.655023922145921</v>
@@ -38160,7 +38010,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.434473840635953</v>
+        <v>1.430795494831449</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.745267932580338</v>
@@ -38249,7 +38099,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.583284611377196</v>
+        <v>1.572455902334285</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.914618993343693</v>
@@ -38338,7 +38188,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.667143897096201</v>
+        <v>1.636593142312451</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.352858018737199</v>
@@ -38427,7 +38277,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.700120534809529</v>
+        <v>1.660610738350413</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.418632079047156</v>
@@ -38516,7 +38366,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.711092539481591</v>
+        <v>1.667053722328938</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.224027522026573</v>
@@ -38802,7 +38652,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.371132398922911</v>
+        <v>1.362516790270753</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.505115035881142</v>
@@ -38891,7 +38741,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.383902645185648</v>
+        <v>1.367635867884961</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.41419497134588</v>
@@ -38980,7 +38830,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.384729265375595</v>
+        <v>1.372321466549204</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.305305494762188</v>
@@ -39069,7 +38919,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.402532383726996</v>
+        <v>1.388874180411673</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.443514950573597</v>
@@ -39158,7 +39008,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.399270013528562</v>
+        <v>1.389880884566977</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.614774856391308</v>
@@ -39247,7 +39097,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.419067540930135</v>
+        <v>1.406963314883536</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.330786274826336</v>
@@ -39336,7 +39186,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.402909391467616</v>
+        <v>1.395348922680576</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.562805984358578</v>
@@ -39425,7 +39275,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.426385344333865</v>
+        <v>1.41905046664362</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.59441954398626</v>
@@ -39514,7 +39364,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.444412315721744</v>
+        <v>1.436461214769489</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.480257505707783</v>
@@ -39603,7 +39453,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.44187458556822</v>
+        <v>1.430035377325177</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.604875105741614</v>
@@ -39692,7 +39542,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.431935493520859</v>
+        <v>1.422604691838443</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.315022175210264</v>
@@ -39781,7 +39631,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.450480812583363</v>
+        <v>1.439470840922724</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.322143010027707</v>
@@ -39870,7 +39720,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.450823096598121</v>
+        <v>1.431229799251233</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.530050143036063</v>
@@ -39959,7 +39809,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.445782359925935</v>
+        <v>1.430795219087699</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.354508257444485</v>
@@ -40048,7 +39898,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.45971417467855</v>
+        <v>1.445338059592026</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.489407013456026</v>
@@ -40137,7 +39987,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.45037689583606</v>
+        <v>1.432403659020779</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.502417801532356</v>
@@ -40226,7 +40076,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.454948201189134</v>
+        <v>1.440667944560491</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.648135073664364</v>
@@ -40315,7 +40165,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.483756897697779</v>
+        <v>1.469482939828468</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.445618235406935</v>
@@ -40404,7 +40254,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.476429868783528</v>
+        <v>1.45960089899331</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.353448651904169</v>
@@ -40493,7 +40343,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.512181925544196</v>
+        <v>1.488642711441903</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.42433978662236</v>
@@ -40582,7 +40432,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.547919838743693</v>
+        <v>1.518173110729741</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.439251647023654</v>
@@ -40671,7 +40521,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.570689916488696</v>
+        <v>1.541778940623356</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.657490412553701</v>
@@ -40760,7 +40610,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.568624109038881</v>
+        <v>1.539832708638878</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.669703200559335</v>
@@ -40849,7 +40699,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.571144494606085</v>
+        <v>1.535234552888527</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.662282700855729</v>
@@ -40938,7 +40788,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.534659740121046</v>
+        <v>1.505984135717565</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.611714598054833</v>
@@ -41027,7 +40877,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.559906124608584</v>
+        <v>1.528341510764208</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.629831646253718</v>
@@ -41116,7 +40966,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.544339629651418</v>
+        <v>1.515847166874838</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.513322756210281</v>
@@ -41205,7 +41055,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.536847569218608</v>
+        <v>1.513294562568454</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.532797709350071</v>
@@ -41294,7 +41144,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.527498683823062</v>
+        <v>1.510681123166578</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.735655313296427</v>
@@ -41383,7 +41233,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.510091615127577</v>
+        <v>1.496793510526286</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.759810273904018</v>
@@ -41472,7 +41322,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.527503846151338</v>
+        <v>1.515043248900198</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.353695645782663</v>
@@ -41561,7 +41411,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.532003894304594</v>
+        <v>1.522642216751111</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.600445004065144</v>
@@ -41650,7 +41500,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.530047917487383</v>
+        <v>1.516151720986525</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.650332164526003</v>
@@ -41739,7 +41589,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.511491014379377</v>
+        <v>1.498892996765108</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.668578984945189</v>
@@ -41828,7 +41678,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.494846858452719</v>
+        <v>1.487251923624376</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.656375310629982</v>
@@ -41917,7 +41767,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.473603811519572</v>
+        <v>1.467028258191808</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.711953269576232</v>
@@ -42006,7 +41856,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.456145927958366</v>
+        <v>1.448365752214254</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.734738000975572</v>
@@ -42095,7 +41945,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.438503956303395</v>
+        <v>1.426542622756455</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.683289258869861</v>
@@ -42184,7 +42034,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.425991520706317</v>
+        <v>1.417930737224302</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.698562308387126</v>
@@ -42273,7 +42123,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.43451173270577</v>
+        <v>1.43074229496939</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.643816440334165</v>
@@ -42362,7 +42212,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.417984091268229</v>
+        <v>1.414494116659045</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.785524087436464</v>
@@ -42451,7 +42301,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.4314007894045</v>
+        <v>1.423810089119498</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.783735767790051</v>
@@ -42540,7 +42390,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.440786055160967</v>
+        <v>1.436093991425184</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.576159959073174</v>
@@ -42629,7 +42479,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.427214233634681</v>
+        <v>1.417413781652632</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.503548836689459</v>
@@ -42718,7 +42568,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.434147123576867</v>
+        <v>1.424657363043856</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.51718002371411</v>
@@ -42807,7 +42657,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.418065053773715</v>
+        <v>1.408983189694072</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.748437916880329</v>
@@ -42896,7 +42746,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.405851366703393</v>
+        <v>1.39452124762374</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.645423254222613</v>
@@ -42985,7 +42835,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.397894559374678</v>
+        <v>1.39076792660591</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.609293758477278</v>
@@ -43074,7 +42924,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.423934561156776</v>
+        <v>1.428960674100645</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.365752160911923</v>
@@ -43163,7 +43013,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.407065274190404</v>
+        <v>1.408168381875125</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.333775846305711</v>
@@ -43252,7 +43102,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.407949153260023</v>
+        <v>1.405632860143384</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.408739192604225</v>
@@ -43341,7 +43191,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.410182650125592</v>
+        <v>1.409127161386527</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.3233097881885</v>
@@ -43430,7 +43280,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.409614410826823</v>
+        <v>1.418521462391522</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.369562984385519</v>
@@ -43519,7 +43369,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.432309707388541</v>
+        <v>1.436138462175709</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.397025810946843</v>
@@ -43608,7 +43458,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.43614280265953</v>
+        <v>1.436412258575672</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.382846884524104</v>
@@ -43697,7 +43547,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.432932240691156</v>
+        <v>1.433659798547396</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.338582075178807</v>
@@ -43786,7 +43636,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.433062201692398</v>
+        <v>1.434050003284413</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.356176044985149</v>
@@ -43875,7 +43725,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.43142716370437</v>
+        <v>1.432699895230955</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.265484005329916</v>
@@ -43964,7 +43814,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.436226533300396</v>
+        <v>1.441714045394011</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.363725301423893</v>
@@ -44053,7 +43903,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.430920506265431</v>
+        <v>1.431333453312909</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.360524280020174</v>
@@ -44142,7 +43992,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.427326269370832</v>
+        <v>1.428737519671132</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.440161144715171</v>
@@ -44231,7 +44081,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.418796652035412</v>
+        <v>1.423257645144183</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.353384566929215</v>
@@ -44320,7 +44170,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.42895464216449</v>
+        <v>1.432223675026689</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.120593146904496</v>
@@ -44409,7 +44259,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.425208564553004</v>
+        <v>1.418190666832511</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.63360419144076</v>
@@ -44498,7 +44348,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.440876454324175</v>
+        <v>1.435716570437622</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.470348885400787</v>
@@ -44587,7 +44437,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.468861897519901</v>
+        <v>1.461776911841704</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.651267181173906</v>
@@ -44676,7 +44526,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.479858266228575</v>
+        <v>1.475180239454133</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.655797325094136</v>
@@ -44765,7 +44615,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.486489421309058</v>
+        <v>1.480947197702331</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.723878255858085</v>
